--- a/Assigment-Q4_updated.xlsx
+++ b/Assigment-Q4_updated.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>Loss Hyperparameter</t>
   </si>
@@ -1638,12 +1638,2639 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = LinearSVC(max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, loss=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'squared_hinge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,penalty=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,C=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dual=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'saga'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clf = RidgeClassifier( max_iter=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, solver=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'auto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,alpha=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, tol=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1e-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1695,6 +4322,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1722,7 +4364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1756,11 +4398,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1795,18 +4450,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1823,11 +4466,173 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2184,12 +4989,12 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:shape val="box"/>
-        <c:axId val="65290240"/>
-        <c:axId val="65291776"/>
+        <c:axId val="79688832"/>
+        <c:axId val="80689408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65290240"/>
+        <c:axId val="79688832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65291776"/>
+        <c:crossAx val="80689408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +5045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65291776"/>
+        <c:axId val="80689408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +5069,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65290240"/>
+        <c:crossAx val="79688832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2406,7 +5211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2839,11 +5643,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="65326080"/>
-        <c:axId val="66192128"/>
+        <c:axId val="129683456"/>
+        <c:axId val="129684992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65326080"/>
+        <c:axId val="129683456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +5717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66192128"/>
+        <c:crossAx val="129684992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2921,7 +5725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66192128"/>
+        <c:axId val="129684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,7 +5762,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65326080"/>
+        <c:crossAx val="129683456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3396,12 +6200,12 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:shape val="box"/>
-        <c:axId val="66258432"/>
-        <c:axId val="66259968"/>
+        <c:axId val="113379584"/>
+        <c:axId val="113397760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66258432"/>
+        <c:axId val="113379584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +6262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66259968"/>
+        <c:crossAx val="113397760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3466,7 +6270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66259968"/>
+        <c:axId val="113397760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +6280,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66258432"/>
+        <c:crossAx val="113379584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3907,12 +6711,12 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:shape val="box"/>
-        <c:axId val="65393024"/>
-        <c:axId val="65394560"/>
+        <c:axId val="111531136"/>
+        <c:axId val="111532672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65393024"/>
+        <c:axId val="111531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,7 +6759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65394560"/>
+        <c:crossAx val="111532672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3963,7 +6767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65394560"/>
+        <c:axId val="111532672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +6791,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65393024"/>
+        <c:crossAx val="111531136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4129,7 +6933,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4544,11 +7347,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="65458176"/>
-        <c:axId val="65459712"/>
+        <c:axId val="111585920"/>
+        <c:axId val="111673728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65458176"/>
+        <c:axId val="111585920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +7421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65459712"/>
+        <c:crossAx val="111673728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4626,7 +7429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65459712"/>
+        <c:axId val="111673728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,7 +7466,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65458176"/>
+        <c:crossAx val="111585920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4777,7 +7580,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CA1D520-734F-4579-8C79-0E17093D049E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA1D520-734F-4579-8C79-0E17093D049E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4815,7 +7618,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031C97D2-FBF6-49CD-A794-1EEF1B2CBA33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031C97D2-FBF6-49CD-A794-1EEF1B2CBA33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4856,7 +7659,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4E7EE6E-D494-48D0-B5EB-4380FC36D58E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E7EE6E-D494-48D0-B5EB-4380FC36D58E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4897,7 +7700,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EF05733-613C-4E25-BCE7-5D0B1FB44280}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF05733-613C-4E25-BCE7-5D0B1FB44280}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +7738,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C217877-04A3-43FF-904C-2EDB72EC59E6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C217877-04A3-43FF-904C-2EDB72EC59E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,6 +7759,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:E36"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Hyperparameters" dataDxfId="6"/>
+    <tableColumn id="2" name="Train Time (s)" dataDxfId="5"/>
+    <tableColumn id="3" name="Test Time (s)" dataDxfId="4"/>
+    <tableColumn id="4" name="Model Size (bytes)" dataDxfId="3"/>
+    <tableColumn id="5" name="Accuracy (%)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5247,7 +8064,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5272,11 +8089,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C4" s="2" t="s">
@@ -5312,27 +8129,27 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C12" s="2"/>
@@ -5401,27 +8218,27 @@
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C20" s="2"/>
@@ -5486,27 +8303,27 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="25"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.5">
@@ -5589,11 +8406,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C4" s="2" t="s">
@@ -5629,14 +8446,14 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C11" s="2" t="s">
@@ -5645,14 +8462,14 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C12" s="2"/>
@@ -5719,14 +8536,14 @@
       <c r="H15" s="1"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C19" s="2" t="s">
@@ -5735,14 +8552,14 @@
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C20" s="2"/>
@@ -5832,26 +8649,26 @@
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C28" s="2"/>
@@ -6278,11 +9095,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C4" s="2" t="s">
@@ -6318,27 +9135,27 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C12" s="2"/>
@@ -6395,27 +9212,27 @@
       <c r="G15" s="1"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C20" s="2"/>
@@ -6480,27 +9297,27 @@
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="25"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.5">
@@ -6546,25 +9363,30 @@
       <c r="G30" s="1"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.5">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C3:E3"/>
@@ -6572,11 +9394,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -6586,329 +9403,805 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="116.05859375" customWidth="1"/>
-    <col min="2" max="2" width="19.87890625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="14.52734375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="124.17578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.17578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.52734375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.6">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="18">
         <v>1.0636056620001899</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <v>5.8417720516000298</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="18">
         <v>88156</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="18">
         <v>0.94849999999999901</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="21">
         <v>0.99493920419999904</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="21">
         <v>6.0890862220000201</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="21">
         <v>88156</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>0.94874999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>3.9058475929999901</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>6.3469567568</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>88156</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>0.94997500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>1.465524834</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>6.9167162134000097</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>88156</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>0.94945000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>1.2800944353999499</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>6.43897495759997</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>88156</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>0.94037499999999896</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="18">
         <v>0.87827230120001298</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>7.1895678135999699</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>88996</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <v>0.82972500000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="18">
         <v>1.06075441299999</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>6.5868168675999996</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>88996</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>0.90222499999999894</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="21">
         <v>0.91920166800000502</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>7.2414218554000804</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="21">
         <v>88996</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <v>0.93964999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="18">
         <v>1.0105014075999399</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="18">
         <v>7.0799133638000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>88996</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>0.94027499999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="18">
         <v>1.0976329500000701</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>6.5615412341999599</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>88156</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>0.94635000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="18">
         <v>1.00257119019979</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>7.0648608295998203</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>88156</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>0.94037499999999896</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="26" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="21">
         <v>1.11421920100001</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="21">
         <v>7.3977770045999902</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="21">
         <v>88156</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="21">
         <v>0.94887499999999902</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="18">
         <v>1.14850647960001</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="18">
         <v>6.9980380496001002</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <v>88156</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>0.94877500000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="18">
         <v>1.12340792080012</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="18">
         <v>6.8496219926001602</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="18">
         <v>88156</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>0.94037499999999896</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="18">
         <v>1.0481185361999401</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="18">
         <v>7.1760774782000203</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="18">
         <v>88156</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>0.94867500000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="18">
         <v>1.09292739119991</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="18">
         <v>7.2344100565998799</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="18">
         <v>88156</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <v>0.94915000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="23" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="18">
         <v>1.1587030959998601</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>7.0977252964000401</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="18">
         <v>88156</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <v>0.94917499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1.2133215265999899</v>
+      </c>
+      <c r="C21" s="18">
+        <v>7.2963089822000002</v>
+      </c>
+      <c r="D21" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.94450000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1.25918016500004</v>
+      </c>
+      <c r="C22" s="18">
+        <v>7.2008157867999598</v>
+      </c>
+      <c r="D22" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.94412499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="18">
+        <v>2.12662557859985</v>
+      </c>
+      <c r="C23" s="18">
+        <v>6.9779838408001504</v>
+      </c>
+      <c r="D23" s="18">
+        <v>83878</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.94269999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1.1261175186000401</v>
+      </c>
+      <c r="C24" s="18">
+        <v>7.5421147092000798</v>
+      </c>
+      <c r="D24" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.94742499999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1.1983023482000099</v>
+      </c>
+      <c r="C25" s="18">
+        <v>7.7014181009999403</v>
+      </c>
+      <c r="D25" s="18">
+        <v>84716</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.90397499999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1.3049144233999801</v>
+      </c>
+      <c r="C26" s="18">
+        <v>7.2461146441999498</v>
+      </c>
+      <c r="D26" s="18">
+        <v>84716</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.93874999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1.2789865344000599</v>
+      </c>
+      <c r="C27" s="18">
+        <v>7.8874252120000996</v>
+      </c>
+      <c r="D27" s="18">
+        <v>84716</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0.94745000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1.5227406160000101</v>
+      </c>
+      <c r="C28" s="18">
+        <v>7.1326232449999196</v>
+      </c>
+      <c r="D28" s="18">
+        <v>84716</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.94745000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1.7045697550000101</v>
+      </c>
+      <c r="C29" s="18">
+        <v>7.2591403158000496</v>
+      </c>
+      <c r="D29" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.94655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1.12523812780009</v>
+      </c>
+      <c r="C30" s="18">
+        <v>6.9338787350001398</v>
+      </c>
+      <c r="D30" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.94742499999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="18">
+        <v>1.5758502504001599</v>
+      </c>
+      <c r="C31" s="18">
+        <v>7.3037953210000497</v>
+      </c>
+      <c r="D31" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0.94510000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1.3437837045999901</v>
+      </c>
+      <c r="C32" s="18">
+        <v>7.4009905078000804</v>
+      </c>
+      <c r="D32" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.94477500000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1.0633963384001599</v>
+      </c>
+      <c r="C33" s="18">
+        <v>7.9306788196001401</v>
+      </c>
+      <c r="D33" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0.94742499999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1.2657570143997801</v>
+      </c>
+      <c r="C34" s="18">
+        <v>7.8088324510003</v>
+      </c>
+      <c r="D34" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0.94522499999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="18">
+        <v>2.0311504876000899</v>
+      </c>
+      <c r="C35" s="18">
+        <v>6.7808289201999203</v>
+      </c>
+      <c r="D35" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="18">
+        <v>1.2045229236000501</v>
+      </c>
+      <c r="C36" s="18">
+        <v>7.5601881621998404</v>
+      </c>
+      <c r="D36" s="18">
+        <v>83876</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.94340000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="18">
+        <v>1.67863619640011</v>
+      </c>
+      <c r="C39" s="18">
+        <v>8.6341345698001497</v>
+      </c>
+      <c r="D39" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0.91969999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="18">
+        <v>5.1891995076000903</v>
+      </c>
+      <c r="C40" s="18">
+        <v>8.9469890632002702</v>
+      </c>
+      <c r="D40" s="18">
+        <v>91331</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.919704999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="18">
+        <v>1.4703933325999901</v>
+      </c>
+      <c r="C41" s="18">
+        <v>8.2512927893998498</v>
+      </c>
+      <c r="D41" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0.91974999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="18">
+        <v>1.38026908519987</v>
+      </c>
+      <c r="C42" s="18">
+        <v>8.4893660464000202</v>
+      </c>
+      <c r="D42" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0.91969999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="18">
+        <v>1.40137678519931</v>
+      </c>
+      <c r="C43" s="18">
+        <v>8.0808962498001993</v>
+      </c>
+      <c r="D43" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0.91972500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="18">
+        <v>1.7148282365997101</v>
+      </c>
+      <c r="C44" s="18">
+        <v>8.6104970627999098</v>
+      </c>
+      <c r="D44" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0.91977499999999901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="18">
+        <v>1.6705606864001299</v>
+      </c>
+      <c r="C45" s="18">
+        <v>9.1214857166000005</v>
+      </c>
+      <c r="D45" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0.87065000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="18">
+        <v>2.7591390593996001</v>
+      </c>
+      <c r="C46" s="18">
+        <v>9.5863248567999104</v>
+      </c>
+      <c r="D46" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0.91557500000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="18">
+        <v>1.72819328780024</v>
+      </c>
+      <c r="C47" s="18">
+        <v>8.5845476041998996</v>
+      </c>
+      <c r="D47" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0.91967500000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="18">
+        <v>1.2878231951999599</v>
+      </c>
+      <c r="C48" s="18">
+        <v>8.4241390740000401</v>
+      </c>
+      <c r="D48" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0.91977499999999901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="18">
+        <v>1.81124124219968</v>
+      </c>
+      <c r="C49" s="18">
+        <v>8.6175126861999107</v>
+      </c>
+      <c r="D49" s="18">
+        <v>87946</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0.91964999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>